--- a/biology/Botanique/Heliotropium_curassavicum/Heliotropium_curassavicum.xlsx
+++ b/biology/Botanique/Heliotropium_curassavicum/Heliotropium_curassavicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Heliotropium curassavicum
 L'héliotrope de Curaçao (Heliotropium curassavicum) est une plante de la famille des Boraginaceae, originaire d'Amérique, naturalisée en Europe méridionale, où elle pousse surtout dans la partie occidentale du bassin méditerranéen, sur les côtes sablonneuses à proximité immédiate de la mer. Elle forme des touffes souvent importantes, aux feuilles glauques, d'où émergent de petites fleurs blanches.
@@ -514,17 +526,126 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Écologie et habitat
-Plante vivace halophyte, poussant uniquement dans les lieux à teneur saline, sables du bord de mer essentiellement. On la rencontre dans l'ouest du bassin méditerranéen jusqu'à la Sicile.
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Plante vivace halophyte, poussant uniquement dans les lieux à teneur saline, sables du bord de mer essentiellement. On la rencontre dans l'ouest du bassin méditerranéen jusqu'à la Sicile.
 Floraison : de mai à septembre
 Pollinisation : entomogame
-Dissémination : barochore
-Morphologie générale et végétative
-Plante herbacée à base ligneuse, charnue, de couleur glauque. Tige couchée à ascendante pouvant atteindre 70 cm de long. Feuilles simples alternes, ovales à linéaires, parfois légèrement spatulées, à une seule nervure centrale.
-Morphologie florale
-Inflorescence en racème de cymes unipares scorpioïdes. Petit calice tubulé vert à cinq pointes triangulaires. Corolle blanche (5 mm ou moins) à cinq lobes à gorge jaune verdâtre ou violacée. Cinq étamines. Style assez court et conique. Ovaire supère.
-Fruit et graines
-Le fruit est formé de quatre petits akènes (méricarpes).
+Dissémination : barochore</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heliotropium_curassavicum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliotropium_curassavicum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Morphologie générale et végétative</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante herbacée à base ligneuse, charnue, de couleur glauque. Tige couchée à ascendante pouvant atteindre 70 cm de long. Feuilles simples alternes, ovales à linéaires, parfois légèrement spatulées, à une seule nervure centrale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Heliotropium_curassavicum</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliotropium_curassavicum</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Morphologie florale</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inflorescence en racème de cymes unipares scorpioïdes. Petit calice tubulé vert à cinq pointes triangulaires. Corolle blanche (5 mm ou moins) à cinq lobes à gorge jaune verdâtre ou violacée. Cinq étamines. Style assez court et conique. Ovaire supère.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Heliotropium_curassavicum</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliotropium_curassavicum</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fruit et graines</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est formé de quatre petits akènes (méricarpes).
 </t>
         </is>
       </c>
